--- a/Evaluation/eval002/sub1533/Classifcation Report.xlsx
+++ b/Evaluation/eval002/sub1533/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8514851485148515</v>
+        <v>0.8585858585858586</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8514851485148515</v>
+        <v>0.8415841584158416</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8514851485148515</v>
+        <v>0.85</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8514851485148515</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8514851485148515</v>
+        <v>0.8613861386138614</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8514851485148515</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8514851485148515</v>
+        <v>0.851623026380308</v>
       </c>
       <c r="C5" t="n">
         <v>0.8514851485148515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8514851485148515</v>
+        <v>0.8514705882352941</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8514851485148515</v>
+        <v>0.8516230263803078</v>
       </c>
       <c r="C6" t="n">
         <v>0.8514851485148515</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8514851485148515</v>
+        <v>0.8514705882352941</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
